--- a/실무_엑셀_예제_파일/Chapter05/05-005.xlsx
+++ b/실무_엑셀_예제_파일/Chapter05/05-005.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD43695-B1C1-47F7-A28E-579312574BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FD7A9B-7153-4A77-B3F4-923A3AF9ADFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2565" windowWidth="16440" windowHeight="29040" xr2:uid="{DFE5A4CD-17DB-4224-86CA-2870333C1088}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{DFE5A4CD-17DB-4224-86CA-2870333C1088}"/>
   </bookViews>
   <sheets>
     <sheet name="워크샵명단" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">워크샵명단!$B$4:$B$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -518,89 +521,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FBE5EA-D84F-499C-96BC-69D63F8098B1}">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.25" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:2" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:2" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:2" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="7.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" ht="7.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" hidden="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B4:B16" xr:uid="{C3FBE5EA-D84F-499C-96BC-69D63F8098B1}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="서울본사-최리(대리)"/>
+        <filter val="서울본사-최효윤(대리)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
